--- a/Config/Singapore_Registry_Config.xlsx
+++ b/Config/Singapore_Registry_Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Singapore\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Singapore\MNS-Singapore\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EE4A1C-A517-4AA3-B4C1-6622DF287C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C07F8A-4A00-4DE2-9AF3-CAC00129275B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="1245" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
   <si>
     <t>Field_Name</t>
   </si>
@@ -195,12 +195,6 @@
     <t>year,director_reg_no,full_name,no_of_shares,currency,nationality</t>
   </si>
   <si>
-    <t>amount,currency</t>
-  </si>
-  <si>
-    <t>date_of_last_ar_only_year,primary_activity_code_number,primary_user_described_activity,secondary_activity_code_number,secondary_user_described_activity</t>
-  </si>
-  <si>
     <t>director_id,name,designation,date_of_appointment,nationality,address</t>
   </si>
   <si>
@@ -208,6 +202,33 @@
   </si>
   <si>
     <t>name,date</t>
+  </si>
+  <si>
+    <t>date_of_last_ar_only_year,primary_activity,primary_user_described_activity,secondary_activity,secondary_user_described_activity</t>
+  </si>
+  <si>
+    <t>amount_with_currency,currency</t>
+  </si>
+  <si>
+    <t>auditors</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>auditor_name</t>
+  </si>
+  <si>
+    <t>auditor</t>
+  </si>
+  <si>
+    <t>audit_firms</t>
+  </si>
+  <si>
+    <t>paid_up_capital_values</t>
+  </si>
+  <si>
+    <t>paid_up_capital,currency</t>
   </si>
 </sst>
 </file>
@@ -586,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,13 +706,13 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -779,7 +800,7 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G10" t="s">
         <v>32</v>
@@ -799,7 +820,7 @@
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>33</v>
@@ -819,7 +840,7 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>37</v>
@@ -839,7 +860,7 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>36</v>
@@ -859,7 +880,7 @@
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>34</v>
@@ -879,7 +900,7 @@
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>35</v>
@@ -905,7 +926,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
@@ -913,7 +934,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
         <v>49</v>
@@ -943,6 +964,26 @@
       </c>
       <c r="G18" s="3" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Singapore_Registry_Config.xlsx
+++ b/Config/Singapore_Registry_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Singapore\MNS-Singapore\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C07F8A-4A00-4DE2-9AF3-CAC00129275B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E65F97-A530-462B-8CC4-9B60E0FF95F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$19</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="68">
   <si>
     <t>Field_Name</t>
   </si>
@@ -129,9 +129,6 @@
     <t>former_name_details</t>
   </si>
   <si>
-    <t>officers</t>
-  </si>
-  <si>
     <t>withdrawn_partners</t>
   </si>
   <si>
@@ -229,6 +226,12 @@
   </si>
   <si>
     <t>paid_up_capital,currency</t>
+  </si>
+  <si>
+    <t>alternate_directors_officers</t>
+  </si>
+  <si>
+    <t>directors_under_officers</t>
   </si>
 </sst>
 </file>
@@ -607,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,13 +709,13 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
         <v>65</v>
-      </c>
-      <c r="E5" t="s">
-        <v>66</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -800,7 +803,7 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
         <v>32</v>
@@ -808,59 +811,59 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>43</v>
+      <c r="C13" t="s">
+        <v>42</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>36</v>
@@ -868,32 +871,32 @@
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D15" t="s">
@@ -903,87 +906,107 @@
         <v>55</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
         <v>47</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="G17" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
         <v>53</v>
       </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="G19" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" t="s">
         <v>61</v>
       </c>
-      <c r="D19" t="s">
+      <c r="G20" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="E19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Singapore_Registry_Config.xlsx
+++ b/Config/Singapore_Registry_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Singapore\MNS-Singapore\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E65F97-A530-462B-8CC4-9B60E0FF95F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F61328-F654-44A8-A260-829C4516376C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -613,7 +613,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Config/Singapore_Registry_Config.xlsx
+++ b/Config/Singapore_Registry_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Singapore\MNS-Singapore\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F61328-F654-44A8-A260-829C4516376C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F8A8F1-2DCA-4BDB-ACA8-6DB41D8ED2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
   <si>
     <t>Field_Name</t>
   </si>
@@ -204,9 +204,6 @@
     <t>date_of_last_ar_only_year,primary_activity,primary_user_described_activity,secondary_activity,secondary_user_described_activity</t>
   </si>
   <si>
-    <t>amount_with_currency,currency</t>
-  </si>
-  <si>
     <t>auditors</t>
   </si>
   <si>
@@ -232,6 +229,21 @@
   </si>
   <si>
     <t>directors_under_officers</t>
+  </si>
+  <si>
+    <t>amount_under_paid_up_capital,currency</t>
+  </si>
+  <si>
+    <t>total_equity_shares</t>
+  </si>
+  <si>
+    <t>shareholdings_summary</t>
+  </si>
+  <si>
+    <t>number_of_shares_under_paid_up_capital</t>
+  </si>
+  <si>
+    <t>amount_under_paid_up_capital</t>
   </si>
 </sst>
 </file>
@@ -610,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,16 +721,16 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
         <v>64</v>
       </c>
-      <c r="E5" t="s">
-        <v>65</v>
-      </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -826,12 +838,12 @@
         <v>54</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -846,7 +858,7 @@
         <v>54</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -991,22 +1003,42 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
         <v>60</v>
       </c>
-      <c r="D20" t="s">
+      <c r="G20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E20" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>63</v>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Singapore_Registry_Config.xlsx
+++ b/Config/Singapore_Registry_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Singapore\MNS-Singapore\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F8A8F1-2DCA-4BDB-ACA8-6DB41D8ED2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891AB160-920F-40DF-92B2-DAB9DF1C01E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$20</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="74">
   <si>
     <t>Field_Name</t>
   </si>
@@ -244,6 +244,12 @@
   </si>
   <si>
     <t>amount_under_paid_up_capital</t>
+  </si>
+  <si>
+    <t>secretaries_officers</t>
+  </si>
+  <si>
+    <t>secretaries_under_officers</t>
   </si>
 </sst>
 </file>
@@ -622,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,9 +867,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -878,17 +884,17 @@
         <v>54</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" t="s">
         <v>42</v>
       </c>
       <c r="D14" t="s">
@@ -898,146 +904,166 @@
         <v>54</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
-        <v>42</v>
+      <c r="C16" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
       </c>
       <c r="E16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
         <v>45</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>46</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>17</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>61</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
         <v>70</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>69</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>70</v>
       </c>
     </row>
